--- a/Node/timeline.xlsx
+++ b/Node/timeline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ormsport\Desktop\ไฟล์\RMUTR TEE\p4\Project\SmartTraffy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ormsport\Desktop\ไฟล์\RMUTR TEE\p4\Project\SmartTraffy\Node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC24841F-6DCA-4A89-8873-2C408A863E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FEA40F-0B86-4C69-B046-687CD772F738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51B1A7BB-47CC-47B0-BDD3-C65B17DDEF5F}"/>
+    <workbookView minimized="1" xWindow="12465" yWindow="1875" windowWidth="14160" windowHeight="11295" xr2:uid="{51B1A7BB-47CC-47B0-BDD3-C65B17DDEF5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="10">
   <si>
     <t>timeline(s)</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>start program</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -103,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -111,7 +117,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F59E75-3F53-4329-87B2-2E4697BB6F37}">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:S184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
@@ -442,10 +447,25 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="N1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -461,8 +481,23 @@
       <c r="E2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -478,11 +513,35 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -498,8 +557,29 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -515,8 +595,29 @@
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -532,8 +633,29 @@
       <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -549,8 +671,29 @@
       <c r="E7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -566,8 +709,29 @@
       <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -583,8 +747,29 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -600,8 +785,29 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -617,8 +823,29 @@
       <c r="E11" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -634,8 +861,29 @@
       <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -651,8 +899,29 @@
       <c r="E13" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -668,8 +937,29 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -685,8 +975,29 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -702,8 +1013,29 @@
       <c r="E16" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -719,8 +1051,29 @@
       <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -736,8 +1089,29 @@
       <c r="E18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -753,8 +1127,29 @@
       <c r="E19" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -770,8 +1165,29 @@
       <c r="E20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -787,8 +1203,29 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -804,8 +1241,29 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -821,8 +1279,29 @@
       <c r="E23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -838,8 +1317,29 @@
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -855,8 +1355,29 @@
       <c r="E25" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -872,8 +1393,29 @@
       <c r="E26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -889,8 +1431,29 @@
       <c r="E27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -906,8 +1469,29 @@
       <c r="E28" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -923,8 +1507,29 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -940,8 +1545,29 @@
       <c r="E30" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -957,8 +1583,29 @@
       <c r="E31" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -974,8 +1621,29 @@
       <c r="E32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -991,8 +1659,29 @@
       <c r="E33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1008,8 +1697,29 @@
       <c r="E34" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1025,8 +1735,29 @@
       <c r="E35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>33</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1042,8 +1773,29 @@
       <c r="E36" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1059,8 +1811,29 @@
       <c r="E37" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1076,8 +1849,29 @@
       <c r="E38" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1093,8 +1887,29 @@
       <c r="E39" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1110,8 +1925,29 @@
       <c r="E40" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1127,8 +1963,29 @@
       <c r="E41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>39</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1144,8 +2001,32 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>40</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1161,8 +2042,29 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>41</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1178,8 +2080,29 @@
       <c r="E44" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>42</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1195,8 +2118,29 @@
       <c r="E45" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>43</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1212,8 +2156,29 @@
       <c r="E46" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>44</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1229,8 +2194,29 @@
       <c r="E47" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>45</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1246,8 +2232,29 @@
       <c r="E48" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>46</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1263,8 +2270,29 @@
       <c r="E49" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>47</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1280,8 +2308,29 @@
       <c r="E50" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>48</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1297,8 +2346,29 @@
       <c r="E51" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>49</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1314,8 +2384,29 @@
       <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1331,8 +2422,29 @@
       <c r="E53" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>51</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1348,8 +2460,29 @@
       <c r="E54" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>52</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1365,8 +2498,29 @@
       <c r="E55" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>53</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1382,8 +2536,29 @@
       <c r="E56" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>54</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1399,8 +2574,29 @@
       <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>55</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1416,8 +2612,29 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>56</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1433,8 +2650,29 @@
       <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>57</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1450,8 +2688,29 @@
       <c r="E60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>58</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1467,8 +2726,29 @@
       <c r="E61" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>59</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1484,8 +2764,29 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>60</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1501,8 +2802,29 @@
       <c r="E63" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>61</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1518,8 +2840,29 @@
       <c r="E64" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>62</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1535,8 +2878,29 @@
       <c r="E65" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>63</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1552,8 +2916,29 @@
       <c r="E66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>64</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1569,8 +2954,29 @@
       <c r="E67" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>65</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1586,8 +2992,29 @@
       <c r="E68" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>66</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1603,8 +3030,29 @@
       <c r="E69" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>67</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1620,8 +3068,29 @@
       <c r="E70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>68</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1637,8 +3106,29 @@
       <c r="E71" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>69</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1654,8 +3144,29 @@
       <c r="E72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>70</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1671,8 +3182,29 @@
       <c r="E73" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>71</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1688,8 +3220,29 @@
       <c r="E74" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>72</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1705,8 +3258,29 @@
       <c r="E75" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>73</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1722,11 +3296,32 @@
       <c r="E76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M76">
+        <v>74</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1742,8 +3337,29 @@
       <c r="E77" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>75</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1759,8 +3375,32 @@
       <c r="E78" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>76</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1776,8 +3416,29 @@
       <c r="E79" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>77</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1793,8 +3454,29 @@
       <c r="E80" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>78</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1810,13 +3492,34 @@
       <c r="E81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>79</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>1</v>
+      <c r="B82" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>3</v>
@@ -1827,13 +3530,34 @@
       <c r="E82" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>80</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>1</v>
+      <c r="B83" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>3</v>
@@ -1844,13 +3568,34 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>81</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>1</v>
+      <c r="B84" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>3</v>
@@ -1861,13 +3606,34 @@
       <c r="E84" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>82</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>1</v>
+      <c r="B85" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>3</v>
@@ -1878,16 +3644,37 @@
       <c r="E85" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>83</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>3</v>
+      <c r="B86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>3</v>
@@ -1895,16 +3682,37 @@
       <c r="E86" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>84</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>3</v>
+      <c r="B87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>3</v>
@@ -1912,16 +3720,37 @@
       <c r="E87" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>85</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>3</v>
+      <c r="B88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>3</v>
@@ -1929,16 +3758,37 @@
       <c r="E88" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>86</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>3</v>
+      <c r="B89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>3</v>
@@ -1946,16 +3796,37 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>87</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>3</v>
+      <c r="B90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>3</v>
@@ -1963,16 +3834,37 @@
       <c r="E90" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>88</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>3</v>
+      <c r="B91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
@@ -1980,16 +3872,37 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>89</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>3</v>
+      <c r="B92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>3</v>
@@ -1997,16 +3910,37 @@
       <c r="E92" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>90</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>3</v>
+      <c r="B93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>3</v>
@@ -2014,13 +3948,34 @@
       <c r="E93" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>91</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>1</v>
+      <c r="B94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>3</v>
@@ -2031,13 +3986,34 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>92</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>1</v>
+      <c r="B95" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>3</v>
@@ -2045,16 +4021,37 @@
       <c r="D95" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>93</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>1</v>
+      <c r="B96" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>3</v>
@@ -2062,16 +4059,37 @@
       <c r="D96" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>94</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>1</v>
+      <c r="B97" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>3</v>
@@ -2079,16 +4097,37 @@
       <c r="D97" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>95</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>1</v>
+      <c r="B98" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>3</v>
@@ -2096,16 +4135,37 @@
       <c r="D98" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>96</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>1</v>
+      <c r="B99" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>3</v>
@@ -2113,16 +4173,37 @@
       <c r="D99" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>97</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>1</v>
+      <c r="B100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>3</v>
@@ -2130,16 +4211,37 @@
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>98</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>1</v>
+      <c r="B101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>3</v>
@@ -2147,16 +4249,37 @@
       <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E101" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>99</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>2</v>
+      <c r="B102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>3</v>
@@ -2164,16 +4287,37 @@
       <c r="D102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E102" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>100</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>2</v>
+      <c r="B103" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>3</v>
@@ -2184,25 +4328,67 @@
       <c r="E103" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>101</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>2</v>
+      <c r="B104" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>3</v>
+      <c r="D104" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>102</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P104" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q104" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2212,124 +4398,271 @@
       <c r="C105" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>3</v>
+      <c r="D105" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>103</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>3</v>
+      <c r="C106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>104</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>3</v>
+      <c r="C107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>105</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>3</v>
+      <c r="C108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>106</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>3</v>
+      <c r="C109" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>107</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>3</v>
+      <c r="C110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>108</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>3</v>
+      <c r="C111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>109</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>2</v>
+      <c r="C112" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>3</v>
@@ -2337,16 +4670,37 @@
       <c r="E112" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>110</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>2</v>
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>3</v>
@@ -2354,13 +4708,34 @@
       <c r="E113" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>111</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>3</v>
+      <c r="B114" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>3</v>
@@ -2371,13 +4746,34 @@
       <c r="E114" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>112</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>3</v>
+      <c r="B115" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>3</v>
@@ -2385,16 +4781,37 @@
       <c r="D115" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="M115">
+        <v>113</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>3</v>
+      <c r="B116" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>3</v>
@@ -2402,16 +4819,37 @@
       <c r="D116" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>114</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>3</v>
+      <c r="B117" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>3</v>
@@ -2419,16 +4857,37 @@
       <c r="D117" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E117" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>115</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>3</v>
+      <c r="B118" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>3</v>
@@ -2436,16 +4895,37 @@
       <c r="D118" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>116</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>3</v>
+      <c r="B119" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>3</v>
@@ -2453,16 +4933,37 @@
       <c r="D119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E119" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>117</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O119" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P119" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>3</v>
+      <c r="B120" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>3</v>
@@ -2470,16 +4971,37 @@
       <c r="D120" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="M120">
+        <v>118</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>3</v>
+      <c r="B121" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>3</v>
@@ -2487,16 +5009,37 @@
       <c r="D121" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E121" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>119</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O121" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P121" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>3</v>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>3</v>
@@ -2504,16 +5047,37 @@
       <c r="D122" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>120</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>3</v>
+      <c r="B123" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>3</v>
@@ -2521,16 +5085,37 @@
       <c r="D123" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>121</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>3</v>
+      <c r="B124" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>3</v>
@@ -2538,16 +5123,37 @@
       <c r="D124" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="M124">
+        <v>122</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>3</v>
+      <c r="B125" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>3</v>
@@ -2555,16 +5161,37 @@
       <c r="D125" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>123</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>3</v>
+      <c r="B126" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>3</v>
@@ -2572,16 +5199,37 @@
       <c r="D126" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>124</v>
+      </c>
+      <c r="N126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>3</v>
+      <c r="B127" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>3</v>
@@ -2589,16 +5237,37 @@
       <c r="D127" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="M127">
+        <v>125</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q127" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>3</v>
+      <c r="B128" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>3</v>
@@ -2609,212 +5278,485 @@
       <c r="E128" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>126</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>3</v>
+      <c r="B129" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>1</v>
+      <c r="D129" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>127</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P129" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q129" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>3</v>
+      <c r="B130" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>1</v>
+      <c r="D130" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>128</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>3</v>
+      <c r="B131" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>1</v>
+      <c r="D131" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>129</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>3</v>
+      <c r="B132" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>1</v>
+      <c r="D132" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>130</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>3</v>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>1</v>
+      <c r="D133" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>131</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>3</v>
+      <c r="B134" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>1</v>
+      <c r="D134" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>132</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>3</v>
+      <c r="B135" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>1</v>
+      <c r="D135" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>133</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O135" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>3</v>
+      <c r="B136" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>1</v>
+      <c r="D136" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>134</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>3</v>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>1</v>
+      <c r="D137" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>135</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>3</v>
+      <c r="B138" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>1</v>
+      <c r="D138" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>136</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>3</v>
+      <c r="B139" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>1</v>
+      <c r="D139" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>137</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>3</v>
+      <c r="B140" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>1</v>
+      <c r="D140" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>138</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -2824,107 +5766,233 @@
       <c r="C141" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>1</v>
+      <c r="D141" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>139</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>1</v>
+      <c r="C142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>140</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>1</v>
+      <c r="C143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>141</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>2</v>
+      <c r="C144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>142</v>
+      </c>
+      <c r="N144" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>2</v>
+      <c r="C145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>143</v>
+      </c>
+      <c r="N145" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q145" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>2</v>
+      <c r="C146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>144</v>
+      </c>
+      <c r="N146" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O146" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P146" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q146" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>3</v>
+      <c r="C147" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>3</v>
@@ -2932,19 +6000,37 @@
       <c r="E147" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F147" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>145</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q147" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>3</v>
+      <c r="B148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>3</v>
@@ -2952,16 +6038,37 @@
       <c r="E148" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>146</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>3</v>
+      <c r="B149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>3</v>
@@ -2969,13 +6076,37 @@
       <c r="E149" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>147</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q149" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>3</v>
+      </c>
+      <c r="S149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>1</v>
+      <c r="B150" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>3</v>
@@ -2986,13 +6117,34 @@
       <c r="E150" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>148</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P150" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>1</v>
+      <c r="B151" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>3</v>
@@ -3000,16 +6152,37 @@
       <c r="D151" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E151" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>149</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P151" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q151" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>1</v>
+      <c r="B152" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>3</v>
@@ -3017,16 +6190,37 @@
       <c r="D152" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>150</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P152" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q152" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>1</v>
+      <c r="B153" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>3</v>
@@ -3034,16 +6228,37 @@
       <c r="D153" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E153" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>151</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q153" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>1</v>
+      <c r="B154" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>3</v>
@@ -3051,16 +6266,37 @@
       <c r="D154" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E154" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>152</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P154" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q154" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>1</v>
+      <c r="B155" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>3</v>
@@ -3068,16 +6304,37 @@
       <c r="D155" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E155" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>153</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q155" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>1</v>
+      <c r="B156" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>3</v>
@@ -3085,16 +6342,37 @@
       <c r="D156" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E156" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>154</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P156" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q156" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>1</v>
+      <c r="B157" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>3</v>
@@ -3102,16 +6380,37 @@
       <c r="D157" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E157" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>155</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P157" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q157" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>1</v>
+      <c r="B158" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>3</v>
@@ -3119,16 +6418,37 @@
       <c r="D158" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>156</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q158" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>1</v>
+      <c r="B159" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>3</v>
@@ -3136,16 +6456,37 @@
       <c r="D159" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>157</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P159" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q159" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>1</v>
+      <c r="B160" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>3</v>
@@ -3153,16 +6494,37 @@
       <c r="D160" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>158</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P160" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>1</v>
+      <c r="B161" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>3</v>
@@ -3170,16 +6532,37 @@
       <c r="D161" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E161" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>159</v>
+      </c>
+      <c r="N161" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P161" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q161" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>1</v>
+      <c r="B162" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>3</v>
@@ -3187,16 +6570,37 @@
       <c r="D162" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E162" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>160</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P162" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q162" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>1</v>
+      <c r="B163" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>3</v>
@@ -3204,16 +6608,37 @@
       <c r="D163" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E163" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>161</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P163" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q163" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>1</v>
+      <c r="B164" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>3</v>
@@ -3224,195 +6649,447 @@
       <c r="E164" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>162</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P164" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q164" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>1</v>
+      <c r="B165" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>3</v>
+      <c r="D165" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>163</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P165" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q165" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>1</v>
+      <c r="B166" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D166" s="3" t="s">
-        <v>3</v>
+      <c r="D166" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>164</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P166" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>1</v>
+      <c r="B167" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D167" s="3" t="s">
-        <v>3</v>
+      <c r="D167" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>165</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P167" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>1</v>
+      <c r="B168" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>3</v>
+      <c r="D168" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="M168">
+        <v>166</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P168" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>1</v>
+      <c r="B169" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>3</v>
+      <c r="D169" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>167</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P169" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>1</v>
+      <c r="B170" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D170" s="3" t="s">
-        <v>3</v>
+      <c r="D170" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>168</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P170" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>1</v>
+      <c r="B171" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D171" s="3" t="s">
-        <v>3</v>
+      <c r="D171" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>169</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P171" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>1</v>
+      <c r="B172" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>3</v>
+      <c r="D172" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="M172">
+        <v>170</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O172" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P172" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>2</v>
+      <c r="B173" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D173" s="3" t="s">
-        <v>3</v>
+      <c r="D173" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>171</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O173" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P173" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q173" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>2</v>
+      <c r="B174" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D174" s="3" t="s">
-        <v>3</v>
+      <c r="D174" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>172</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O174" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P174" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q174" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>2</v>
+      <c r="B175" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D175" s="3" t="s">
-        <v>3</v>
+      <c r="D175" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>173</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O175" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P175" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q175" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -3422,713 +7099,306 @@
       <c r="C176" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>3</v>
+      <c r="D176" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>174</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>3</v>
+      <c r="C177" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>175</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>3</v>
+      <c r="C178" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>176</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>3</v>
+      <c r="C179" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>177</v>
+      </c>
+      <c r="N179" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O179" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q179" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>3</v>
+      <c r="C180" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>178</v>
+      </c>
+      <c r="N180" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O180" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q180" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>3</v>
+      <c r="C181" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>179</v>
+      </c>
+      <c r="N181" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O181" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P181" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q181" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>3</v>
+      <c r="C182" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="F182">
+        <v>2</v>
+      </c>
+      <c r="M182">
+        <v>180</v>
+      </c>
+      <c r="N182" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O182" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P182" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q182" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M183">
         <v>181</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="N183" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O183" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P183" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q183" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M184">
         <v>182</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>183</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>184</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>185</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>186</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>187</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>188</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>189</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>190</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>191</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>192</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>193</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>194</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>195</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>196</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>197</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>198</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>199</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>200</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>201</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>202</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>203</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>204</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>205</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>206</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>207</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>208</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>209</v>
-      </c>
-      <c r="B211" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>210</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>211</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>212</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>213</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>214</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>215</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E217" s="3" t="s">
+      <c r="N184" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P184" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q184" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R184">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
